--- a/PESBiU2.0/results_graphs/DDDQN.xlsx
+++ b/PESBiU2.0/results_graphs/DDDQN.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/xkolac15_vutbr_cz/Documents/DOKTORSKE STUDIUM/Dizertace/Srovnani Algoritmu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_source\pesbiu2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D80C4656A4B7AC02E74B4CB9965105BDEDD91" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AA63C0D-9C10-43F5-94B6-8E27F343591E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62750F1-680C-4BEF-BFBC-10EFB9371531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="7572" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -417,10 +428,13 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="15" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -478,10 +492,10 @@
         <v>8.9872990000000001</v>
       </c>
       <c r="I2" s="2">
-        <v>80.405322999999996</v>
+        <v>804.05322999999999</v>
       </c>
       <c r="J2" s="2">
-        <v>80.078328999999997</v>
+        <v>800.78328999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -510,10 +524,10 @@
         <v>9.5500159999999994</v>
       </c>
       <c r="I3" s="2">
-        <v>78.695615000000004</v>
+        <v>786.95614999999998</v>
       </c>
       <c r="J3" s="2">
-        <v>78.582474000000005</v>
+        <v>785.82474000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -542,10 +556,10 @@
         <v>9.0253800000000002</v>
       </c>
       <c r="I4" s="2">
-        <v>71.929208000000003</v>
+        <v>719.29208000000006</v>
       </c>
       <c r="J4" s="2">
-        <v>71.927843999999993</v>
+        <v>719.27843999999993</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -574,10 +588,10 @@
         <v>8.9871540000000003</v>
       </c>
       <c r="I5" s="2">
-        <v>74.889156</v>
+        <v>748.89156000000003</v>
       </c>
       <c r="J5" s="2">
-        <v>74.849791999999994</v>
+        <v>748.49791999999991</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -606,10 +620,10 @@
         <v>8.8034829999999999</v>
       </c>
       <c r="I6" s="2">
-        <v>79.974947999999998</v>
+        <v>799.74947999999995</v>
       </c>
       <c r="J6" s="2">
-        <v>79.974947999999998</v>
+        <v>799.74947999999995</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -638,10 +652,10 @@
         <v>8.5455050000000004</v>
       </c>
       <c r="I7" s="2">
-        <v>65.740347</v>
+        <v>657.40346999999997</v>
       </c>
       <c r="J7" s="2">
-        <v>65.740347</v>
+        <v>657.40346999999997</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -670,10 +684,10 @@
         <v>8.2688459999999999</v>
       </c>
       <c r="I8" s="2">
-        <v>74.302082999999996</v>
+        <v>743.02082999999993</v>
       </c>
       <c r="J8" s="2">
-        <v>74.148477999999997</v>
+        <v>741.48478</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -702,10 +716,10 @@
         <v>7.7496140000000002</v>
       </c>
       <c r="I9" s="2">
-        <v>118.505927</v>
+        <v>1185.05927</v>
       </c>
       <c r="J9" s="2">
-        <v>118.505927</v>
+        <v>1185.05927</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -734,10 +748,10 @@
         <v>7.5794319999999997</v>
       </c>
       <c r="I10" s="2">
-        <v>121.23565600000001</v>
+        <v>1212.3565600000002</v>
       </c>
       <c r="J10" s="2">
-        <v>121.226303</v>
+        <v>1212.2630300000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -766,10 +780,10 @@
         <v>7.7109399999999999</v>
       </c>
       <c r="I11" s="2">
-        <v>115.695365</v>
+        <v>1156.9536499999999</v>
       </c>
       <c r="J11" s="2">
-        <v>115.69215800000001</v>
+        <v>1156.9215800000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -798,10 +812,10 @@
         <v>7.6612499999999999</v>
       </c>
       <c r="I12" s="2">
-        <v>115.404208</v>
+        <v>1154.0420799999999</v>
       </c>
       <c r="J12" s="2">
-        <v>115.303622</v>
+        <v>1153.03622</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -830,10 +844,10 @@
         <v>7.3902270000000003</v>
       </c>
       <c r="I13" s="2">
-        <v>101.40723</v>
+        <v>1014.0723</v>
       </c>
       <c r="J13" s="2">
-        <v>101.37957400000001</v>
+        <v>1013.79574</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,10 +876,10 @@
         <v>7.2500739999999997</v>
       </c>
       <c r="I14" s="2">
-        <v>99.212768999999994</v>
+        <v>992.12768999999992</v>
       </c>
       <c r="J14" s="2">
-        <v>99.211020000000005</v>
+        <v>992.11020000000008</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -894,10 +908,10 @@
         <v>6.9656859999999998</v>
       </c>
       <c r="I15" s="2">
-        <v>91.875590000000003</v>
+        <v>918.7559</v>
       </c>
       <c r="J15" s="2">
-        <v>91.833757000000006</v>
+        <v>918.33757000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -926,10 +940,10 @@
         <v>8.042249</v>
       </c>
       <c r="I16" s="2">
-        <v>138.153479</v>
+        <v>1381.5347900000002</v>
       </c>
       <c r="J16" s="2">
-        <v>138.153479</v>
+        <v>1381.5347900000002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -958,10 +972,10 @@
         <v>7.5418989999999999</v>
       </c>
       <c r="I17" s="2">
-        <v>124.846417</v>
+        <v>1248.46417</v>
       </c>
       <c r="J17" s="2">
-        <v>124.846417</v>
+        <v>1248.46417</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -990,10 +1004,10 @@
         <v>8.0445360000000008</v>
       </c>
       <c r="I18" s="2">
-        <v>122.887406</v>
+        <v>1228.8740600000001</v>
       </c>
       <c r="J18" s="2">
-        <v>122.887406</v>
+        <v>1228.8740600000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1022,10 +1036,10 @@
         <v>7.691808</v>
       </c>
       <c r="I19" s="2">
-        <v>116.428375</v>
+        <v>1164.2837500000001</v>
       </c>
       <c r="J19" s="2">
-        <v>116.428375</v>
+        <v>1164.2837500000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1054,10 +1068,10 @@
         <v>7.1785480000000002</v>
       </c>
       <c r="I20" s="2">
-        <v>114.173384</v>
+        <v>1141.7338399999999</v>
       </c>
       <c r="J20" s="2">
-        <v>114.147936</v>
+        <v>1141.47936</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1086,10 +1100,10 @@
         <v>7.6259920000000001</v>
       </c>
       <c r="I21" s="2">
-        <v>111.819333</v>
+        <v>1118.1933300000001</v>
       </c>
       <c r="J21" s="2">
-        <v>111.819333</v>
+        <v>1118.1933300000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1118,10 +1132,10 @@
         <v>7.3523959999999997</v>
       </c>
       <c r="I22" s="2">
-        <v>116.01150800000001</v>
+        <v>1160.11508</v>
       </c>
       <c r="J22" s="2">
-        <v>115.994184</v>
+        <v>1159.94184</v>
       </c>
     </row>
   </sheetData>
